--- a/Special Challenge/SpcecialChallengeconfig.xlsx
+++ b/Special Challenge/SpcecialChallengeconfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Special Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9935A43E-FCD4-5344-87D0-D28F781F5C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9031B6-E95E-6F42-B41B-7212408862FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2500" yWindow="-21600" windowWidth="24400" windowHeight="21600" xr2:uid="{862DBE92-8EE1-7F40-88FE-3AD3F4281EF4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
   <si>
     <t>balls</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>notes//只是备注</t>
+  </si>
+  <si>
+    <t>其他显示</t>
+  </si>
+  <si>
+    <t>解锁条件</t>
+  </si>
+  <si>
+    <t>//保留字段</t>
   </si>
 </sst>
 </file>
@@ -443,17 +452,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E49281F-4F69-0A4E-BEBA-98DF452F93F8}">
-  <dimension ref="A1:AD134"/>
+  <dimension ref="A1:AD140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -889,7 +900,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>70546</v>
       </c>
     </row>
@@ -897,7 +908,7 @@
       <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>1627628400</v>
       </c>
     </row>
@@ -905,7 +916,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>1627974000</v>
       </c>
     </row>
@@ -913,7 +924,7 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
     </row>
@@ -921,7 +932,7 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>200</v>
       </c>
     </row>
@@ -929,7 +940,7 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>500</v>
       </c>
     </row>
@@ -952,22 +963,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="7" customFormat="1">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="15" spans="1:30" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
         <v>110</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>198</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="7" customFormat="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:30" s="4" customFormat="1">
+      <c r="A16" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -979,19 +990,19 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="7" customFormat="1">
-      <c r="A19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
+    <row r="19" spans="1:5" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="7" customFormat="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:5" s="4" customFormat="1">
+      <c r="A20" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1003,29 +1014,29 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="7" customFormat="1">
-      <c r="A23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
+    <row r="23" spans="1:5" s="4" customFormat="1">
+      <c r="A23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>55</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="7" customFormat="1">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:5" s="4" customFormat="1">
+      <c r="A24" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1035,87 +1046,87 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" s="4" customFormat="1">
+      <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" s="4" customFormat="1">
+      <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1">
+      <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1">
+      <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>60341</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>60342</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>60343</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" s="4" customFormat="1">
+      <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>10</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>12</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" s="4" customFormat="1">
+      <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1129,55 +1140,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" s="4" customFormat="1">
+      <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>172800</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>172800</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>172800</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>172800</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" s="4" customFormat="1">
+      <c r="A40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" s="4" customFormat="1">
+      <c r="A41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>800001</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>80002</v>
       </c>
-      <c r="D41">
-        <v>-639997</v>
-      </c>
-      <c r="E41">
-        <v>-1359996</v>
+      <c r="D41" s="4">
+        <v>80003</v>
+      </c>
+      <c r="E41" s="4">
+        <v>80004</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1185,63 +1196,63 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" s="4" customFormat="1">
+      <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
         <v>31</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>32</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>33</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" s="4" customFormat="1">
+      <c r="A45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>259200</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>259200</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>259200</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>259200</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>259200</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" s="4" customFormat="1">
+      <c r="A46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>70211</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>70212</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>70213</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>70214</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>70215</v>
       </c>
     </row>
@@ -1254,7 +1265,7 @@
       <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1262,7 +1273,7 @@
       <c r="A51" t="s">
         <v>25</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1270,7 +1281,7 @@
       <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1286,49 +1297,53 @@
       <c r="A56" t="s">
         <v>30</v>
       </c>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>31</v>
       </c>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>32</v>
       </c>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>33</v>
       </c>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>34</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1336,13 +1351,13 @@
       <c r="A63" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1350,1021 +1365,1277 @@
       <c r="A64" t="s">
         <v>12</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4">
         <v>2</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>49</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>52</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>53</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>54</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>55</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>56</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>57</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>58</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>59</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" s="4" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>62</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="6" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" t="s">
-        <v>87</v>
-      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>66</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" t="s">
-        <v>83</v>
-      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>1627974000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="5" customFormat="1"/>
+    <row r="94" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B95" s="4">
         <v>1627542000</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1627974000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="1" customFormat="1">
+      <c r="A98" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B100" s="4">
         <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" s="1" customFormat="1">
-      <c r="A100" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="1" customFormat="1">
+      <c r="A104" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" t="s">
         <v>97</v>
       </c>
-      <c r="B101">
+      <c r="B105" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
-      <c r="A102" s="6" t="s">
+    <row r="106" spans="1:16">
+      <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="G103" s="6" t="s">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" t="s">
+        <v>120</v>
+      </c>
+      <c r="F107" t="s">
+        <v>120</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6" t="s">
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-    </row>
-    <row r="104" spans="1:16">
-      <c r="A104" t="s">
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" t="s">
         <v>100</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B108" t="s">
         <v>101</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C108" t="s">
         <v>102</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D108" t="s">
         <v>103</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E108" t="s">
         <v>104</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F108" t="s">
         <v>99</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G108" t="s">
         <v>99</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H108" t="s">
         <v>101</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I108" t="s">
         <v>102</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J108" t="s">
         <v>103</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K108" t="s">
         <v>104</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L108" t="s">
         <v>99</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M108" t="s">
         <v>101</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N108" t="s">
         <v>102</v>
       </c>
-      <c r="O104" t="s">
+      <c r="O108" t="s">
         <v>103</v>
       </c>
-      <c r="P104" t="s">
+      <c r="P108" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
+    <row r="109" spans="1:16">
+      <c r="A109" s="4">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
         <v>19</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
+      <c r="F109" s="4">
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>1</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
         <v>110</v>
       </c>
-      <c r="K105">
+      <c r="K109" s="4">
         <v>5</v>
       </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
+      <c r="L109" s="4">
+        <v>0</v>
+      </c>
+      <c r="M109" s="4">
         <v>6</v>
       </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105">
+      <c r="N109" s="4">
+        <v>0</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0</v>
+      </c>
+      <c r="P109" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
-      <c r="A106">
+    <row r="110" spans="1:16">
+      <c r="A110" s="4">
         <v>2</v>
       </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
         <v>19</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>1</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
         <v>110</v>
       </c>
-      <c r="K106">
+      <c r="K110" s="4">
         <v>5</v>
       </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
+      <c r="L110" s="4">
+        <v>0</v>
+      </c>
+      <c r="M110" s="4">
         <v>6</v>
       </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="P106">
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="4">
+        <v>0</v>
+      </c>
+      <c r="P110" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
-      <c r="A107">
+    <row r="111" spans="1:16">
+      <c r="A111" s="4">
         <v>3</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
         <v>19</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
+      <c r="F111" s="4">
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>1</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
         <v>110</v>
       </c>
-      <c r="K107">
+      <c r="K111" s="4">
         <v>5</v>
       </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
+      <c r="L111" s="4">
+        <v>0</v>
+      </c>
+      <c r="M111" s="4">
         <v>6</v>
       </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107">
+      <c r="N111" s="4">
+        <v>0</v>
+      </c>
+      <c r="O111" s="4">
+        <v>0</v>
+      </c>
+      <c r="P111" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
-      <c r="A108">
+    <row r="112" spans="1:16">
+      <c r="A112" s="4">
         <v>4</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
         <v>19</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
         <v>110</v>
       </c>
-      <c r="K108">
+      <c r="K112" s="4">
         <v>5</v>
       </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108">
+      <c r="L112" s="4">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
         <v>6</v>
       </c>
-      <c r="N108">
-        <v>0</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108">
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0</v>
+      </c>
+      <c r="P112" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
-      <c r="A109">
+    <row r="113" spans="1:16">
+      <c r="A113" s="4">
         <v>5</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
         <v>19</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
+      <c r="F113" s="4">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0</v>
+      </c>
+      <c r="J113" s="4">
         <v>110</v>
       </c>
-      <c r="K109">
+      <c r="K113" s="4">
         <v>5</v>
       </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
+      <c r="L113" s="4">
+        <v>0</v>
+      </c>
+      <c r="M113" s="4">
         <v>6</v>
       </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109">
+      <c r="N113" s="4">
+        <v>0</v>
+      </c>
+      <c r="O113" s="4">
+        <v>0</v>
+      </c>
+      <c r="P113" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
-      <c r="A110">
+    <row r="114" spans="1:16">
+      <c r="A114" s="4">
         <v>6</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
         <v>19</v>
       </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
+      <c r="F114" s="4">
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="4">
         <v>110</v>
       </c>
-      <c r="K110">
+      <c r="K114" s="4">
         <v>5</v>
       </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
+      <c r="L114" s="4">
+        <v>0</v>
+      </c>
+      <c r="M114" s="4">
         <v>6</v>
       </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
+      <c r="N114" s="4">
+        <v>0</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
+      <c r="P114" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
-      <c r="A111">
+    <row r="115" spans="1:16">
+      <c r="A115" s="4">
         <v>7</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
         <v>19</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
+      <c r="F115" s="4">
+        <v>0</v>
+      </c>
+      <c r="G115" s="4">
+        <v>0</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="J115" s="4">
         <v>110</v>
       </c>
-      <c r="K111">
+      <c r="K115" s="4">
         <v>5</v>
       </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
+      <c r="L115" s="4">
+        <v>0</v>
+      </c>
+      <c r="M115" s="4">
         <v>6</v>
       </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0</v>
+      </c>
+      <c r="P115" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
-      <c r="A112">
+    <row r="116" spans="1:16">
+      <c r="A116" s="4">
         <v>8</v>
       </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
         <v>19</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
+      <c r="F116" s="4">
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="4">
         <v>110</v>
       </c>
-      <c r="K112">
+      <c r="K116" s="4">
         <v>5</v>
       </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
+      <c r="L116" s="4">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4">
         <v>6</v>
       </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112">
+      <c r="N116" s="4">
+        <v>0</v>
+      </c>
+      <c r="O116" s="4">
+        <v>0</v>
+      </c>
+      <c r="P116" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
-      <c r="A113">
+    <row r="117" spans="1:16">
+      <c r="A117" s="4">
         <v>9</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
         <v>19</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
+      <c r="F117" s="4">
+        <v>0</v>
+      </c>
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>1</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="4">
         <v>110</v>
       </c>
-      <c r="K113">
+      <c r="K117" s="4">
         <v>5</v>
       </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
+      <c r="L117" s="4">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4">
         <v>6</v>
       </c>
-      <c r="N113">
-        <v>0</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113">
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0</v>
+      </c>
+      <c r="P117" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
-      <c r="A114">
+    <row r="118" spans="1:16">
+      <c r="A118" s="4">
         <v>10</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
         <v>19</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
+      <c r="F118" s="4">
+        <v>0</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
+      <c r="H118" s="4">
+        <v>1</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+      <c r="J118" s="4">
         <v>110</v>
       </c>
-      <c r="K114">
+      <c r="K118" s="4">
         <v>5</v>
       </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114">
+      <c r="L118" s="4">
+        <v>0</v>
+      </c>
+      <c r="M118" s="4">
         <v>6</v>
       </c>
-      <c r="N114">
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
+      <c r="N118" s="4">
+        <v>0</v>
+      </c>
+      <c r="O118" s="4">
+        <v>0</v>
+      </c>
+      <c r="P118" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
-      <c r="A115">
+    <row r="119" spans="1:16">
+      <c r="A119" s="4">
         <v>11</v>
       </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
         <v>19</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
+      <c r="F119" s="4">
+        <v>0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0</v>
+      </c>
+      <c r="H119" s="4">
+        <v>1</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4">
         <v>110</v>
       </c>
-      <c r="K115">
+      <c r="K119" s="4">
         <v>5</v>
       </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
+      <c r="L119" s="4">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4">
         <v>6</v>
       </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
+      <c r="N119" s="4">
+        <v>0</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0</v>
+      </c>
+      <c r="P119" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
-      <c r="A116">
+    <row r="120" spans="1:16">
+      <c r="A120" s="4">
         <v>12</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="4">
         <v>19</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
+      <c r="F120" s="4">
+        <v>0</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>1</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="4">
         <v>110</v>
       </c>
-      <c r="K116">
+      <c r="K120" s="4">
         <v>5</v>
       </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
+      <c r="L120" s="4">
+        <v>0</v>
+      </c>
+      <c r="M120" s="4">
         <v>6</v>
       </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="P116">
+      <c r="N120" s="4">
+        <v>0</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0</v>
+      </c>
+      <c r="P120" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="1" customFormat="1">
-      <c r="A127" s="1" t="s">
+    <row r="121" spans="1:16">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+    </row>
+    <row r="133" spans="1:16" s="1" customFormat="1">
+      <c r="A133" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="6" t="s">
+    <row r="134" spans="1:16">
+      <c r="A134" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:16" s="4" customFormat="1">
+      <c r="A135" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" s="4" customFormat="1">
+      <c r="A136" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B130">
+      <c r="B136" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+    <row r="137" spans="1:16" s="4" customFormat="1">
+      <c r="A137" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" s="4" customFormat="1">
+      <c r="A138" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" s="4" customFormat="1">
+      <c r="A139" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B133">
+      <c r="B139" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+    <row r="140" spans="1:16" s="4" customFormat="1">
+      <c r="A140" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B134">
+      <c r="B140" s="4">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="L103:P103"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="L107:P107"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A134:B134"/>
     <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="G107:K107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Special Challenge/SpcecialChallengeconfig.xlsx
+++ b/Special Challenge/SpcecialChallengeconfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Special Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9031B6-E95E-6F42-B41B-7212408862FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878653AF-83D2-7C4A-A6BB-E87BC9BA0FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21600" windowWidth="24400" windowHeight="21600" xr2:uid="{862DBE92-8EE1-7F40-88FE-3AD3F4281EF4}"/>
+    <workbookView xWindow="-2500" yWindow="-21100" windowWidth="35900" windowHeight="21100" xr2:uid="{862DBE92-8EE1-7F40-88FE-3AD3F4281EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,19 +452,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,14 +782,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E49281F-4F69-0A4E-BEBA-98DF452F93F8}">
   <dimension ref="A1:AD140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -900,7 +901,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>70546</v>
       </c>
     </row>
@@ -908,23 +909,23 @@
       <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="4">
-        <v>1627628400</v>
+      <c r="B5" s="10">
+        <v>44423.625</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <v>1627974000</v>
+      <c r="B6" s="10">
+        <v>44427.625</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
     </row>
@@ -932,7 +933,7 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>200</v>
       </c>
     </row>
@@ -940,7 +941,7 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>500</v>
       </c>
     </row>
@@ -963,22 +964,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="4" customFormat="1">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="15" spans="1:30" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
         <v>110</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>198</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="4" customFormat="1">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:30" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -990,19 +991,19 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1">
-      <c r="A19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
+    <row r="19" spans="1:5" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" s="3" customFormat="1">
+      <c r="A20" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1014,25 +1015,25 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1">
-      <c r="A23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
+    <row r="23" spans="1:5" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>55</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" s="3" customFormat="1">
+      <c r="A24" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1046,87 +1047,87 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:5" s="3" customFormat="1">
+      <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>8</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:5" s="3" customFormat="1">
+      <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
         <v>5</v>
       </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1">
-      <c r="A31" s="5" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1">
-      <c r="A32" s="5" t="s">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1">
+      <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>60341</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>60342</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>60343</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:6" s="3" customFormat="1">
+      <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>10</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>12</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="4" customFormat="1">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:6" s="3" customFormat="1">
+      <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>6</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>8</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>10</v>
       </c>
     </row>
@@ -1140,54 +1141,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="4" customFormat="1">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:6" s="3" customFormat="1">
+      <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>172800</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>172800</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>172800</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="4" customFormat="1">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:6" s="3" customFormat="1">
+      <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>7</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="4" customFormat="1">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:6" s="3" customFormat="1">
+      <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>800001</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>80002</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>80003</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>80004</v>
       </c>
     </row>
@@ -1196,63 +1197,63 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:6" s="3" customFormat="1">
+      <c r="A44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
         <v>31</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>32</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>33</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="4" customFormat="1">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:6" s="3" customFormat="1">
+      <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>259200</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>259200</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>259200</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>259200</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>259200</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:6" s="3" customFormat="1">
+      <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>70211</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>70212</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>70213</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>70214</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>70215</v>
       </c>
     </row>
@@ -1265,7 +1266,7 @@
       <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1273,7 +1274,7 @@
       <c r="A51" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1281,7 +1282,7 @@
       <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1297,53 +1298,53 @@
       <c r="A56" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1351,13 +1352,13 @@
       <c r="A63" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1365,51 +1366,51 @@
       <c r="A64" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="4">
-        <v>1</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
         <v>2</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1417,19 +1418,19 @@
       <c r="A71" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1437,7 +1438,7 @@
       <c r="A74" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1445,7 +1446,7 @@
       <c r="A75" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1453,7 +1454,7 @@
       <c r="A76" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1461,7 +1462,7 @@
       <c r="A77" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1469,7 +1470,7 @@
       <c r="A78" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1477,7 +1478,7 @@
       <c r="A79" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1485,7 +1486,7 @@
       <c r="A80" t="s">
         <v>59</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1493,7 +1494,7 @@
       <c r="A81" t="s">
         <v>60</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1501,7 +1502,7 @@
       <c r="A82" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1509,29 +1510,29 @@
       <c r="A83" t="s">
         <v>62</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>64</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1539,13 +1540,13 @@
       <c r="A87" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1553,26 +1554,26 @@
       <c r="A88" t="s">
         <v>66</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1580,7 +1581,7 @@
       <c r="A91" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1588,11 +1589,11 @@
       <c r="A92" t="s">
         <v>69</v>
       </c>
-      <c r="B92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="5" customFormat="1"/>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="4" customFormat="1"/>
     <row r="94" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>118</v>
@@ -1602,7 +1603,7 @@
       <c r="A95" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>1627542000</v>
       </c>
     </row>
@@ -1610,7 +1611,7 @@
       <c r="A96" t="s">
         <v>90</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>1627974000</v>
       </c>
     </row>
@@ -1620,16 +1621,16 @@
       </c>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>9</v>
       </c>
     </row>
@@ -1637,7 +1638,7 @@
       <c r="A101" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1650,29 +1651,29 @@
       <c r="A105" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16">
       <c r="B107" t="s">
@@ -1687,20 +1688,20 @@
       <c r="F107" t="s">
         <v>120</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3" t="s">
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
@@ -1753,820 +1754,820 @@
       </c>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="4">
-        <v>1</v>
-      </c>
-      <c r="B109" s="4">
-        <v>0</v>
-      </c>
-      <c r="C109" s="4">
-        <v>0</v>
-      </c>
-      <c r="D109" s="4">
-        <v>0</v>
-      </c>
-      <c r="E109" s="4">
+      <c r="A109" s="3">
+        <v>1</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
         <v>19</v>
       </c>
-      <c r="F109" s="4">
-        <v>0</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0</v>
-      </c>
-      <c r="H109" s="4">
-        <v>1</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0</v>
-      </c>
-      <c r="J109" s="4">
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
         <v>110</v>
       </c>
-      <c r="K109" s="4">
+      <c r="K109" s="3">
         <v>5</v>
       </c>
-      <c r="L109" s="4">
-        <v>0</v>
-      </c>
-      <c r="M109" s="4">
+      <c r="L109" s="3">
+        <v>0</v>
+      </c>
+      <c r="M109" s="3">
         <v>6</v>
       </c>
-      <c r="N109" s="4">
-        <v>0</v>
-      </c>
-      <c r="O109" s="4">
-        <v>0</v>
-      </c>
-      <c r="P109" s="4">
+      <c r="N109" s="3">
+        <v>0</v>
+      </c>
+      <c r="O109" s="3">
+        <v>0</v>
+      </c>
+      <c r="P109" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>2</v>
       </c>
-      <c r="B110" s="4">
-        <v>0</v>
-      </c>
-      <c r="C110" s="4">
-        <v>0</v>
-      </c>
-      <c r="D110" s="4">
-        <v>0</v>
-      </c>
-      <c r="E110" s="4">
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
         <v>19</v>
       </c>
-      <c r="F110" s="4">
-        <v>0</v>
-      </c>
-      <c r="G110" s="4">
-        <v>0</v>
-      </c>
-      <c r="H110" s="4">
-        <v>1</v>
-      </c>
-      <c r="I110" s="4">
-        <v>0</v>
-      </c>
-      <c r="J110" s="4">
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
         <v>110</v>
       </c>
-      <c r="K110" s="4">
+      <c r="K110" s="3">
         <v>5</v>
       </c>
-      <c r="L110" s="4">
-        <v>0</v>
-      </c>
-      <c r="M110" s="4">
+      <c r="L110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="3">
         <v>6</v>
       </c>
-      <c r="N110" s="4">
-        <v>0</v>
-      </c>
-      <c r="O110" s="4">
-        <v>0</v>
-      </c>
-      <c r="P110" s="4">
+      <c r="N110" s="3">
+        <v>0</v>
+      </c>
+      <c r="O110" s="3">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>3</v>
       </c>
-      <c r="B111" s="4">
-        <v>0</v>
-      </c>
-      <c r="C111" s="4">
-        <v>0</v>
-      </c>
-      <c r="D111" s="4">
-        <v>0</v>
-      </c>
-      <c r="E111" s="4">
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
         <v>19</v>
       </c>
-      <c r="F111" s="4">
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0</v>
-      </c>
-      <c r="H111" s="4">
-        <v>1</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0</v>
-      </c>
-      <c r="J111" s="4">
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
         <v>110</v>
       </c>
-      <c r="K111" s="4">
+      <c r="K111" s="3">
         <v>5</v>
       </c>
-      <c r="L111" s="4">
-        <v>0</v>
-      </c>
-      <c r="M111" s="4">
+      <c r="L111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
         <v>6</v>
       </c>
-      <c r="N111" s="4">
-        <v>0</v>
-      </c>
-      <c r="O111" s="4">
-        <v>0</v>
-      </c>
-      <c r="P111" s="4">
+      <c r="N111" s="3">
+        <v>0</v>
+      </c>
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>4</v>
       </c>
-      <c r="B112" s="4">
-        <v>0</v>
-      </c>
-      <c r="C112" s="4">
-        <v>0</v>
-      </c>
-      <c r="D112" s="4">
-        <v>0</v>
-      </c>
-      <c r="E112" s="4">
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
         <v>19</v>
       </c>
-      <c r="F112" s="4">
-        <v>0</v>
-      </c>
-      <c r="G112" s="4">
-        <v>0</v>
-      </c>
-      <c r="H112" s="4">
-        <v>1</v>
-      </c>
-      <c r="I112" s="4">
-        <v>0</v>
-      </c>
-      <c r="J112" s="4">
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
         <v>110</v>
       </c>
-      <c r="K112" s="4">
+      <c r="K112" s="3">
         <v>5</v>
       </c>
-      <c r="L112" s="4">
-        <v>0</v>
-      </c>
-      <c r="M112" s="4">
+      <c r="L112" s="3">
+        <v>0</v>
+      </c>
+      <c r="M112" s="3">
         <v>6</v>
       </c>
-      <c r="N112" s="4">
-        <v>0</v>
-      </c>
-      <c r="O112" s="4">
-        <v>0</v>
-      </c>
-      <c r="P112" s="4">
+      <c r="N112" s="3">
+        <v>0</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>5</v>
       </c>
-      <c r="B113" s="4">
-        <v>0</v>
-      </c>
-      <c r="C113" s="4">
-        <v>0</v>
-      </c>
-      <c r="D113" s="4">
-        <v>0</v>
-      </c>
-      <c r="E113" s="4">
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
         <v>19</v>
       </c>
-      <c r="F113" s="4">
-        <v>0</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1</v>
-      </c>
-      <c r="I113" s="4">
-        <v>0</v>
-      </c>
-      <c r="J113" s="4">
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
         <v>110</v>
       </c>
-      <c r="K113" s="4">
+      <c r="K113" s="3">
         <v>5</v>
       </c>
-      <c r="L113" s="4">
-        <v>0</v>
-      </c>
-      <c r="M113" s="4">
+      <c r="L113" s="3">
+        <v>0</v>
+      </c>
+      <c r="M113" s="3">
         <v>6</v>
       </c>
-      <c r="N113" s="4">
-        <v>0</v>
-      </c>
-      <c r="O113" s="4">
-        <v>0</v>
-      </c>
-      <c r="P113" s="4">
+      <c r="N113" s="3">
+        <v>0</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0</v>
+      </c>
+      <c r="P113" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>6</v>
       </c>
-      <c r="B114" s="4">
-        <v>0</v>
-      </c>
-      <c r="C114" s="4">
-        <v>0</v>
-      </c>
-      <c r="D114" s="4">
-        <v>0</v>
-      </c>
-      <c r="E114" s="4">
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
         <v>19</v>
       </c>
-      <c r="F114" s="4">
-        <v>0</v>
-      </c>
-      <c r="G114" s="4">
-        <v>0</v>
-      </c>
-      <c r="H114" s="4">
-        <v>1</v>
-      </c>
-      <c r="I114" s="4">
-        <v>0</v>
-      </c>
-      <c r="J114" s="4">
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
         <v>110</v>
       </c>
-      <c r="K114" s="4">
+      <c r="K114" s="3">
         <v>5</v>
       </c>
-      <c r="L114" s="4">
-        <v>0</v>
-      </c>
-      <c r="M114" s="4">
+      <c r="L114" s="3">
+        <v>0</v>
+      </c>
+      <c r="M114" s="3">
         <v>6</v>
       </c>
-      <c r="N114" s="4">
-        <v>0</v>
-      </c>
-      <c r="O114" s="4">
-        <v>0</v>
-      </c>
-      <c r="P114" s="4">
+      <c r="N114" s="3">
+        <v>0</v>
+      </c>
+      <c r="O114" s="3">
+        <v>0</v>
+      </c>
+      <c r="P114" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>7</v>
       </c>
-      <c r="B115" s="4">
-        <v>0</v>
-      </c>
-      <c r="C115" s="4">
-        <v>0</v>
-      </c>
-      <c r="D115" s="4">
-        <v>0</v>
-      </c>
-      <c r="E115" s="4">
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
         <v>19</v>
       </c>
-      <c r="F115" s="4">
-        <v>0</v>
-      </c>
-      <c r="G115" s="4">
-        <v>0</v>
-      </c>
-      <c r="H115" s="4">
-        <v>1</v>
-      </c>
-      <c r="I115" s="4">
-        <v>0</v>
-      </c>
-      <c r="J115" s="4">
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
         <v>110</v>
       </c>
-      <c r="K115" s="4">
+      <c r="K115" s="3">
         <v>5</v>
       </c>
-      <c r="L115" s="4">
-        <v>0</v>
-      </c>
-      <c r="M115" s="4">
+      <c r="L115" s="3">
+        <v>0</v>
+      </c>
+      <c r="M115" s="3">
         <v>6</v>
       </c>
-      <c r="N115" s="4">
-        <v>0</v>
-      </c>
-      <c r="O115" s="4">
-        <v>0</v>
-      </c>
-      <c r="P115" s="4">
+      <c r="N115" s="3">
+        <v>0</v>
+      </c>
+      <c r="O115" s="3">
+        <v>0</v>
+      </c>
+      <c r="P115" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>8</v>
       </c>
-      <c r="B116" s="4">
-        <v>0</v>
-      </c>
-      <c r="C116" s="4">
-        <v>0</v>
-      </c>
-      <c r="D116" s="4">
-        <v>0</v>
-      </c>
-      <c r="E116" s="4">
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
         <v>19</v>
       </c>
-      <c r="F116" s="4">
-        <v>0</v>
-      </c>
-      <c r="G116" s="4">
-        <v>0</v>
-      </c>
-      <c r="H116" s="4">
-        <v>1</v>
-      </c>
-      <c r="I116" s="4">
-        <v>0</v>
-      </c>
-      <c r="J116" s="4">
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
         <v>110</v>
       </c>
-      <c r="K116" s="4">
+      <c r="K116" s="3">
         <v>5</v>
       </c>
-      <c r="L116" s="4">
-        <v>0</v>
-      </c>
-      <c r="M116" s="4">
+      <c r="L116" s="3">
+        <v>0</v>
+      </c>
+      <c r="M116" s="3">
         <v>6</v>
       </c>
-      <c r="N116" s="4">
-        <v>0</v>
-      </c>
-      <c r="O116" s="4">
-        <v>0</v>
-      </c>
-      <c r="P116" s="4">
+      <c r="N116" s="3">
+        <v>0</v>
+      </c>
+      <c r="O116" s="3">
+        <v>0</v>
+      </c>
+      <c r="P116" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>9</v>
       </c>
-      <c r="B117" s="4">
-        <v>0</v>
-      </c>
-      <c r="C117" s="4">
-        <v>0</v>
-      </c>
-      <c r="D117" s="4">
-        <v>0</v>
-      </c>
-      <c r="E117" s="4">
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
         <v>19</v>
       </c>
-      <c r="F117" s="4">
-        <v>0</v>
-      </c>
-      <c r="G117" s="4">
-        <v>0</v>
-      </c>
-      <c r="H117" s="4">
-        <v>1</v>
-      </c>
-      <c r="I117" s="4">
-        <v>0</v>
-      </c>
-      <c r="J117" s="4">
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
         <v>110</v>
       </c>
-      <c r="K117" s="4">
+      <c r="K117" s="3">
         <v>5</v>
       </c>
-      <c r="L117" s="4">
-        <v>0</v>
-      </c>
-      <c r="M117" s="4">
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+      <c r="M117" s="3">
         <v>6</v>
       </c>
-      <c r="N117" s="4">
-        <v>0</v>
-      </c>
-      <c r="O117" s="4">
-        <v>0</v>
-      </c>
-      <c r="P117" s="4">
+      <c r="N117" s="3">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3">
+        <v>0</v>
+      </c>
+      <c r="P117" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:16">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>10</v>
       </c>
-      <c r="B118" s="4">
-        <v>0</v>
-      </c>
-      <c r="C118" s="4">
-        <v>0</v>
-      </c>
-      <c r="D118" s="4">
-        <v>0</v>
-      </c>
-      <c r="E118" s="4">
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
         <v>19</v>
       </c>
-      <c r="F118" s="4">
-        <v>0</v>
-      </c>
-      <c r="G118" s="4">
-        <v>0</v>
-      </c>
-      <c r="H118" s="4">
-        <v>1</v>
-      </c>
-      <c r="I118" s="4">
-        <v>0</v>
-      </c>
-      <c r="J118" s="4">
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
         <v>110</v>
       </c>
-      <c r="K118" s="4">
+      <c r="K118" s="3">
         <v>5</v>
       </c>
-      <c r="L118" s="4">
-        <v>0</v>
-      </c>
-      <c r="M118" s="4">
+      <c r="L118" s="3">
+        <v>0</v>
+      </c>
+      <c r="M118" s="3">
         <v>6</v>
       </c>
-      <c r="N118" s="4">
-        <v>0</v>
-      </c>
-      <c r="O118" s="4">
-        <v>0</v>
-      </c>
-      <c r="P118" s="4">
+      <c r="N118" s="3">
+        <v>0</v>
+      </c>
+      <c r="O118" s="3">
+        <v>0</v>
+      </c>
+      <c r="P118" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:16">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>11</v>
       </c>
-      <c r="B119" s="4">
-        <v>0</v>
-      </c>
-      <c r="C119" s="4">
-        <v>0</v>
-      </c>
-      <c r="D119" s="4">
-        <v>0</v>
-      </c>
-      <c r="E119" s="4">
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
         <v>19</v>
       </c>
-      <c r="F119" s="4">
-        <v>0</v>
-      </c>
-      <c r="G119" s="4">
-        <v>0</v>
-      </c>
-      <c r="H119" s="4">
-        <v>1</v>
-      </c>
-      <c r="I119" s="4">
-        <v>0</v>
-      </c>
-      <c r="J119" s="4">
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
         <v>110</v>
       </c>
-      <c r="K119" s="4">
+      <c r="K119" s="3">
         <v>5</v>
       </c>
-      <c r="L119" s="4">
-        <v>0</v>
-      </c>
-      <c r="M119" s="4">
+      <c r="L119" s="3">
+        <v>0</v>
+      </c>
+      <c r="M119" s="3">
         <v>6</v>
       </c>
-      <c r="N119" s="4">
-        <v>0</v>
-      </c>
-      <c r="O119" s="4">
-        <v>0</v>
-      </c>
-      <c r="P119" s="4">
+      <c r="N119" s="3">
+        <v>0</v>
+      </c>
+      <c r="O119" s="3">
+        <v>0</v>
+      </c>
+      <c r="P119" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>12</v>
       </c>
-      <c r="B120" s="4">
-        <v>0</v>
-      </c>
-      <c r="C120" s="4">
-        <v>0</v>
-      </c>
-      <c r="D120" s="4">
-        <v>0</v>
-      </c>
-      <c r="E120" s="4">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
         <v>19</v>
       </c>
-      <c r="F120" s="4">
-        <v>0</v>
-      </c>
-      <c r="G120" s="4">
-        <v>0</v>
-      </c>
-      <c r="H120" s="4">
-        <v>1</v>
-      </c>
-      <c r="I120" s="4">
-        <v>0</v>
-      </c>
-      <c r="J120" s="4">
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
         <v>110</v>
       </c>
-      <c r="K120" s="4">
+      <c r="K120" s="3">
         <v>5</v>
       </c>
-      <c r="L120" s="4">
-        <v>0</v>
-      </c>
-      <c r="M120" s="4">
+      <c r="L120" s="3">
+        <v>0</v>
+      </c>
+      <c r="M120" s="3">
         <v>6</v>
       </c>
-      <c r="N120" s="4">
-        <v>0</v>
-      </c>
-      <c r="O120" s="4">
-        <v>0</v>
-      </c>
-      <c r="P120" s="4">
+      <c r="N120" s="3">
+        <v>0</v>
+      </c>
+      <c r="O120" s="3">
+        <v>0</v>
+      </c>
+      <c r="P120" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
     </row>
     <row r="122" spans="1:16">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
     </row>
     <row r="125" spans="1:16">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
     </row>
     <row r="126" spans="1:16">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
     </row>
     <row r="127" spans="1:16">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
     </row>
     <row r="128" spans="1:16">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:16">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
-      <c r="P131" s="5"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
     </row>
     <row r="133" spans="1:16" s="1" customFormat="1">
       <c r="A133" s="1" t="s">
@@ -2574,56 +2575,56 @@
       </c>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="1:16" s="4" customFormat="1">
-      <c r="A135" s="5" t="s">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="1:16" s="3" customFormat="1">
+      <c r="A135" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" s="4" customFormat="1">
-      <c r="A136" s="5" t="s">
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" s="3" customFormat="1">
+      <c r="A136" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="4" customFormat="1">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:16" s="3" customFormat="1">
+      <c r="A137" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B137" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" s="4" customFormat="1">
-      <c r="A138" s="5" t="s">
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" s="3" customFormat="1">
+      <c r="A138" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" s="4" customFormat="1">
-      <c r="A139" s="5" t="s">
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" s="3" customFormat="1">
+      <c r="A139" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:16" s="4" customFormat="1">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:16" s="3" customFormat="1">
+      <c r="A140" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="3">
         <v>5</v>
       </c>
     </row>

--- a/Special Challenge/SpcecialChallengeconfig.xlsx
+++ b/Special Challenge/SpcecialChallengeconfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Special Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878653AF-83D2-7C4A-A6BB-E87BC9BA0FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6C1FB2-8F04-104E-B302-16A06CE69604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21100" windowWidth="35900" windowHeight="21100" xr2:uid="{862DBE92-8EE1-7F40-88FE-3AD3F4281EF4}"/>
+    <workbookView xWindow="-1420" yWindow="-21100" windowWidth="35900" windowHeight="21100" xr2:uid="{862DBE92-8EE1-7F40-88FE-3AD3F4281EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,10 +462,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E49281F-4F69-0A4E-BEBA-98DF452F93F8}">
   <dimension ref="A1:AD140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -909,7 +909,7 @@
       <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>44423.625</v>
       </c>
     </row>
@@ -917,7 +917,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>44427.625</v>
       </c>
     </row>
@@ -1327,12 +1327,12 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
@@ -1515,12 +1515,12 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
@@ -1621,10 +1621,10 @@
       </c>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="9"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
@@ -1656,24 +1656,24 @@
       </c>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
     </row>
     <row r="107" spans="1:16">
       <c r="B107" t="s">
@@ -1688,20 +1688,20 @@
       <c r="F107" t="s">
         <v>120</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9" t="s">
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" t="s">
@@ -2575,10 +2575,10 @@
       </c>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="10"/>
     </row>
     <row r="135" spans="1:16" s="3" customFormat="1">
       <c r="A135" s="4" t="s">
